--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF887255-F92C-4915-8C96-4B6D3C2556A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89546D2C-3F3C-4902-90CB-0798601C1CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,13 +108,13 @@
     <t xml:space="preserve">Good. </t>
   </si>
   <si>
-    <t>Factors affecting program readability</t>
-  </si>
-  <si>
-    <t>Learn something from the first class</t>
-  </si>
-  <si>
-    <t>Understand Structure of the course</t>
+    <t>There're many factors affecting program readability.</t>
+  </si>
+  <si>
+    <t>Understand Structure of the course. Successfully set up the development environment and send a pull request. Learn how to add the upstream to my fork project and fetch from the upstream repository.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be concentrating and learn something from the first class.  </t>
   </si>
 </sst>
 </file>
@@ -254,7 +253,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,11 +282,20 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -609,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,24 +627,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -705,107 +713,107 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>43839</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89546D2C-3F3C-4902-90CB-0798601C1CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516ACD43-D8E5-4D01-B5B8-FAC6158BF839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -54,42 +54,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Zeyu Huang</t>
   </si>
   <si>
@@ -115,6 +91,51 @@
   </si>
   <si>
     <t xml:space="preserve">Be concentrating and learn something from the first class.  </t>
+  </si>
+  <si>
+    <t>It is so cool to work at Google.</t>
+  </si>
+  <si>
+    <t>Good and a liitle bit tired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn some strategies of code reading. </t>
+  </si>
+  <si>
+    <t>Shikun Xiong, Yue Zhang, Tianlun Li</t>
+  </si>
+  <si>
+    <t>7.00 pm</t>
+  </si>
+  <si>
+    <t>Make sure the environment is set up and be familiar with Intellij IDEA. Make sure java apps can be successfully built and run on my machine.</t>
+  </si>
+  <si>
+    <t>All the goals are achieved.</t>
+  </si>
+  <si>
+    <t>It is so good that there wasn't much trouble.</t>
+  </si>
+  <si>
+    <t>10.00 pm</t>
+  </si>
+  <si>
+    <t>Different java applications are built and run successfully. All the goals are achieved.</t>
+  </si>
+  <si>
+    <t>Build up the course project team with Tianlun and Yue. Read the code of Jpacman and learn how to do the code-search in different project efficiently. Fix some bugs and do some modification without running the code. Listen to the experience sharing of Ping and learn some new terms.</t>
+  </si>
+  <si>
+    <t>Yue Zhang, Tianlun Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decide the the open source system that our team will use for the project. Finish the homework of continuing exploring JPacMan3. </t>
+  </si>
+  <si>
+    <t>Deciding which project to choose was not so easy because we have to find a unique project which may be easy to understand. Fortunately, we finally find a satisfied one.</t>
+  </si>
+  <si>
+    <t>A fulfilling and rewarding night</t>
   </si>
 </sst>
 </file>
@@ -253,7 +274,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -282,9 +303,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -292,10 +310,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -617,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,24 +645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -660,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -673,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -686,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -713,107 +731,117 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>43839</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>43839</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>43841</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>43846</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>43848</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF887255-F92C-4915-8C96-4B6D3C2556A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516ACD43-D8E5-4D01-B5B8-FAC6158BF839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -55,42 +54,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Zeyu Huang</t>
   </si>
   <si>
@@ -109,13 +84,58 @@
     <t xml:space="preserve">Good. </t>
   </si>
   <si>
-    <t>Factors affecting program readability</t>
-  </si>
-  <si>
-    <t>Learn something from the first class</t>
-  </si>
-  <si>
-    <t>Understand Structure of the course</t>
+    <t>There're many factors affecting program readability.</t>
+  </si>
+  <si>
+    <t>Understand Structure of the course. Successfully set up the development environment and send a pull request. Learn how to add the upstream to my fork project and fetch from the upstream repository.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be concentrating and learn something from the first class.  </t>
+  </si>
+  <si>
+    <t>It is so cool to work at Google.</t>
+  </si>
+  <si>
+    <t>Good and a liitle bit tired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn some strategies of code reading. </t>
+  </si>
+  <si>
+    <t>Shikun Xiong, Yue Zhang, Tianlun Li</t>
+  </si>
+  <si>
+    <t>7.00 pm</t>
+  </si>
+  <si>
+    <t>Make sure the environment is set up and be familiar with Intellij IDEA. Make sure java apps can be successfully built and run on my machine.</t>
+  </si>
+  <si>
+    <t>All the goals are achieved.</t>
+  </si>
+  <si>
+    <t>It is so good that there wasn't much trouble.</t>
+  </si>
+  <si>
+    <t>10.00 pm</t>
+  </si>
+  <si>
+    <t>Different java applications are built and run successfully. All the goals are achieved.</t>
+  </si>
+  <si>
+    <t>Build up the course project team with Tianlun and Yue. Read the code of Jpacman and learn how to do the code-search in different project efficiently. Fix some bugs and do some modification without running the code. Listen to the experience sharing of Ping and learn some new terms.</t>
+  </si>
+  <si>
+    <t>Yue Zhang, Tianlun Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decide the the open source system that our team will use for the project. Finish the homework of continuing exploring JPacMan3. </t>
+  </si>
+  <si>
+    <t>Deciding which project to choose was not so easy because we have to find a unique project which may be easy to understand. Fortunately, we finally find a satisfied one.</t>
+  </si>
+  <si>
+    <t>A fulfilling and rewarding night</t>
   </si>
 </sst>
 </file>
@@ -254,7 +274,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,8 +303,14 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,24 +645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -652,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -678,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -705,107 +731,117 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>43839</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>43839</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>43841</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>43846</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>43848</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516ACD43-D8E5-4D01-B5B8-FAC6158BF839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E98C6-2299-4BB3-A491-FC54EC52DEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -136,13 +136,67 @@
   </si>
   <si>
     <t>A fulfilling and rewarding night</t>
+  </si>
+  <si>
+    <t>Attend the class</t>
+  </si>
+  <si>
+    <t>Learn something about the mental model and the UML. Understand how to use the plugin in Idea to draw the UML for a system automatically.</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Good plugin.</t>
+  </si>
+  <si>
+    <t>2.00-5.00 pm</t>
+  </si>
+  <si>
+    <t>9.00-12.00 pm</t>
+  </si>
+  <si>
+    <t>Continue looking for how the two features were implemented and draw the tempalte tables and the uml diagrams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attend the class, make presentation about our first assignment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get familiar with the system we choose, read the code, and decide which two features to choose for the first assignment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finnaly chose the IP Filter and the Rank Eval features. </t>
+  </si>
+  <si>
+    <t>Not so good. Because the codes were really hard to understand. We traversaled from one class to another, from one folder to another, sometimes we had to go back when we came to a dead end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The uml diagrams were finished. And the how the features were implemented is clear. The process of our work is well-documented. </t>
+  </si>
+  <si>
+    <t>Not so good. It was a tough task because it was a really huge and complex system. But our goal was achieved, which made it not so bad.</t>
+  </si>
+  <si>
+    <t>Get to know how to understand a totally unfamiliar system.</t>
+  </si>
+  <si>
+    <t>Do some modifications to my first homework according to the comments offered by the TA.</t>
+  </si>
+  <si>
+    <t>Learning from practice is better than from articles and blogs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done. Leanr that I should not forgot to upload the image used in my markdown file next time. And learn how the pull request work.  </t>
+  </si>
+  <si>
+    <t>Tough work but finnaly done. And we think the uml diagram for the whole system is useless and unreadable:)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -272,9 +318,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,16 +337,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -312,9 +349,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -633,15 +680,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="12" customWidth="1"/>
+    <col min="2" max="7" width="34.6640625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -665,7 +714,7 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -674,7 +723,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -687,10 +736,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
@@ -700,7 +749,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -713,7 +762,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -722,7 +771,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -731,1125 +780,1194 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>43839</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>43841</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>43846</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>43848</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+    <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>43850</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>43853</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>43855</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>43859</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>43860</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="8"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
     </row>
     <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
     </row>
     <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
     </row>
     <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
     </row>
     <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
     </row>
     <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
     </row>
     <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E98C6-2299-4BB3-A491-FC54EC52DEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5E3DA-88AD-4BE7-A9F0-46A06F45B5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -190,6 +190,42 @@
   </si>
   <si>
     <t>Tough work but finnaly done. And we think the uml diagram for the whole system is useless and unreadable:)</t>
+  </si>
+  <si>
+    <t>7.00-9.00pm</t>
+  </si>
+  <si>
+    <t>9.00-11.30pm</t>
+  </si>
+  <si>
+    <t>I've learned UML during my undergraduate study so it was no so hard for me.</t>
+  </si>
+  <si>
+    <t>Build the project we chose, ElasticSearch, following the tips in the documents. Go through the project and try some essential feature.</t>
+  </si>
+  <si>
+    <t>Developed some fundamental understanding about the project we choose.</t>
+  </si>
+  <si>
+    <t>What a big project.</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>Tired.</t>
+  </si>
+  <si>
+    <t>Decide which two features to study. Finish the homework. Write the report about the implementation of these two features and the relationship between them and other relevant parts of the project.</t>
+  </si>
+  <si>
+    <t>Learnt about UML diagram and behavior model.</t>
+  </si>
+  <si>
+    <t>We chose Index and Search for our project, since these two are the most essential parts of a searching engine. We illuminated the implementation of the features in our reports, and some diagrams and charts were drawn in order to help understanding.</t>
+  </si>
+  <si>
+    <t>We met some difficulties when looking for relevant parts in the project because in fact there was not so many parts relevant.</t>
   </si>
 </sst>
 </file>
@@ -358,10 +394,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -680,38 +716,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" style="12" customWidth="1"/>
-    <col min="2" max="7" width="34.6640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="14"/>
+    <col min="2" max="7" width="34.6640625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -993,27 +1029,61 @@
       <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>43861</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>43866</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -1959,15 +2029,6 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-ZeyuHuang.xlsx
+++ b/diaries/diary-ZeyuHuang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developers\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5E3DA-88AD-4BE7-A9F0-46A06F45B5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E71624-5078-4071-9764-33AB91338E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -219,13 +219,88 @@
     <t>Decide which two features to study. Finish the homework. Write the report about the implementation of these two features and the relationship between them and other relevant parts of the project.</t>
   </si>
   <si>
-    <t>Learnt about UML diagram and behavior model.</t>
-  </si>
-  <si>
     <t>We chose Index and Search for our project, since these two are the most essential parts of a searching engine. We illuminated the implementation of the features in our reports, and some diagrams and charts were drawn in order to help understanding.</t>
   </si>
   <si>
     <t>We met some difficulties when looking for relevant parts in the project because in fact there was not so many parts relevant.</t>
+  </si>
+  <si>
+    <t>Learnt about UML diagram and behavioral model.</t>
+  </si>
+  <si>
+    <t>12.00-5.00pm</t>
+  </si>
+  <si>
+    <t>9.00-12.00pm</t>
+  </si>
+  <si>
+    <t>Review for the Mid Term</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>5.00-8.00pm</t>
+  </si>
+  <si>
+    <t>Attending the class and learn something about the mid term</t>
+  </si>
+  <si>
+    <t>Took notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reviewed the question being asked during the class and took notes</t>
+  </si>
+  <si>
+    <t>Learned the importance of good commentations. Leaned how to read codes with the helpful template. Took some notes. Made the plan to review for the mid term</t>
+  </si>
+  <si>
+    <t>Worrying about the midterm.</t>
+  </si>
+  <si>
+    <t>Still worrying.</t>
+  </si>
+  <si>
+    <t>Take the exam</t>
+  </si>
+  <si>
+    <t>5.30-10.30 pm</t>
+  </si>
+  <si>
+    <t>We found some interesting things when doing homework. For instance, the developer who committed the most code is their CEO!! It was really fun when you were digging a company's history and culture.</t>
+  </si>
+  <si>
+    <t>Drawing the "big picture" for our own project and looking for issues that we think we can handle.</t>
+  </si>
+  <si>
+    <t>At least I answered all of the questions, including the bonus one. After the exam, we learned about the big picture of a system, including the stakeholders, key developers, and functionality.</t>
+  </si>
+  <si>
+    <t>Worrying but not so bad. Reviewing is helpful. Maybe I can start earlier before the final.</t>
+  </si>
+  <si>
+    <t>4.00-7.00 pm</t>
+  </si>
+  <si>
+    <t>Doing the assignment of this week.</t>
+  </si>
+  <si>
+    <t>Listening carefully because the final is closed.</t>
+  </si>
+  <si>
+    <t>I learned how to document the architecture of a system in different aspects. And I learned about the social context of a system, different states of a project, some standards or guidelines for a project, and the process of contributing to a project including bug reporting and code changing.</t>
+  </si>
+  <si>
+    <t>The normalized standards and the processes are somehow cumbersome, but it helps to regulate the behaviors of different developers, which makes it easy for us to cooperate with each other.</t>
+  </si>
+  <si>
+    <t>The big picture was not so difficult for us because it was an open-source project. We can find every commit and every contributor on the GitHub. There was also plenty of information on their official websites about their suppliers and partners. However, the issues are really hard to understand.</t>
+  </si>
+  <si>
+    <t>Deppening my understanding about the knowledge learned of the class and our project.</t>
+  </si>
+  <si>
+    <t>Finishing the Social Context, and Interesting issues and pull requests part of the assignment. Having a discussion on the architecture part with partners.</t>
   </si>
 </sst>
 </file>
@@ -718,18 +793,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="12" customWidth="1"/>
-    <col min="2" max="7" width="34.6640625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="34.7109375" style="12" customWidth="1"/>
+    <col min="2" max="7" width="34.7109375" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -740,7 +815,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -749,7 +824,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -758,7 +833,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -771,7 +846,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -784,7 +859,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -797,7 +872,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -806,7 +881,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -815,7 +890,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -838,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43839</v>
       </c>
@@ -861,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43841</v>
       </c>
@@ -882,7 +957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43846</v>
       </c>
@@ -905,7 +980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43848</v>
       </c>
@@ -928,7 +1003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43850</v>
       </c>
@@ -949,7 +1024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43853</v>
       </c>
@@ -970,7 +1045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43855</v>
       </c>
@@ -993,7 +1068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43859</v>
       </c>
@@ -1016,7 +1091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43860</v>
       </c>
@@ -1030,7 +1105,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>55</v>
@@ -1039,7 +1114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43861</v>
       </c>
@@ -1062,7 +1137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43866</v>
       </c>
@@ -1076,79 +1151,163 @@
         <v>61</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>43867</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>43871</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>43872</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>43874</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>43880</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>43881</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>43886</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1157,7 +1316,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1166,7 +1325,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1175,7 +1334,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1184,7 +1343,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1193,7 +1352,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1202,7 +1361,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1211,7 +1370,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1220,7 +1379,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1229,7 +1388,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1238,7 +1397,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1247,7 +1406,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1256,7 +1415,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1265,7 +1424,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1274,7 +1433,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1283,7 +1442,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1292,7 +1451,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1301,7 +1460,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1310,7 +1469,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1319,7 +1478,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1328,7 +1487,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1337,7 +1496,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1346,7 +1505,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1355,7 +1514,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1364,7 +1523,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1373,7 +1532,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1382,7 +1541,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1391,7 +1550,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1400,7 +1559,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1409,7 +1568,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1418,7 +1577,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -1427,7 +1586,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1436,7 +1595,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1445,7 +1604,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1454,7 +1613,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -1463,7 +1622,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1472,7 +1631,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -1481,7 +1640,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1490,7 +1649,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -1499,7 +1658,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1508,7 +1667,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -1517,7 +1676,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1526,7 +1685,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1535,7 +1694,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1544,7 +1703,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -1553,7 +1712,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1562,7 +1721,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -1571,7 +1730,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1580,7 +1739,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -1589,7 +1748,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1598,7 +1757,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -1607,7 +1766,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1616,7 +1775,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1625,7 +1784,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1634,7 +1793,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -1643,7 +1802,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1652,7 +1811,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -1661,7 +1820,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1670,7 +1829,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -1679,7 +1838,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1688,7 +1847,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -1697,7 +1856,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1706,7 +1865,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -1715,7 +1874,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1724,7 +1883,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -1733,7 +1892,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1742,7 +1901,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -1751,7 +1910,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1760,7 +1919,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -1769,7 +1928,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1778,7 +1937,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -1787,7 +1946,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1796,7 +1955,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -1805,7 +1964,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -1814,7 +1973,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -1823,7 +1982,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -1832,7 +1991,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -1841,7 +2000,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -1850,7 +2009,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -1859,7 +2018,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -1868,7 +2027,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -1877,7 +2036,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -1886,7 +2045,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -1895,7 +2054,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -1904,7 +2063,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -1913,7 +2072,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -1922,7 +2081,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
     </row>
-    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -1931,7 +2090,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -1940,7 +2099,7 @@
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
     </row>
-    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -1949,7 +2108,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -1958,7 +2117,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
     </row>
-    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -1967,7 +2126,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -1976,7 +2135,7 @@
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
     </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -1985,7 +2144,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -1994,7 +2153,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
     </row>
-    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -2003,7 +2162,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -2012,7 +2171,7 @@
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
     </row>
-    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -2021,7 +2180,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
